--- a/biology/Zoologie/British_Wildlife_Centre/British_Wildlife_Centre.xlsx
+++ b/biology/Zoologie/British_Wildlife_Centre/British_Wildlife_Centre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le British Wildlife Centre se situe à Newchapel, près de Lingfield (Surrey), en Angleterre. Ce centre a été fondé par David Mills en 1997, convertissant une ancienne ferme laitière en un centre pour préserver la faune et flore britannique. Initialement le centre était seulement ouvert aux groupes sur réservations, mais en 2000 il a été ouvert au grand public.
@@ -512,7 +524,9 @@
           <t>Les animaux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il y a en tout une quarantaine d'espèces britanniques qui sont protégées dans ce centre.
 </t>
@@ -543,7 +557,9 @@
           <t>Conservation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le British Wildlife Centre désire instruire et encourager d'autres personnes à participer aux activités de conservation de la faune et la flore.
 </t>
